--- a/src/test/resources/com/w2a/excel/testdata.xlsx
+++ b/src/test/resources/com/w2a/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\eclipse-workspace\PageObjectModalBasics\src\test\resources\com\w2a\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A21D83-F5FF-4E52-B667-94ECFC9B1BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A643A-D5BB-4295-80D0-3E524A78B471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24645" yWindow="5580" windowWidth="11835" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>TCID</t>
   </si>
@@ -72,13 +72,19 @@
   </si>
   <si>
     <t>logintest</t>
+  </si>
+  <si>
+    <t>addToCartFromProductPage</t>
+  </si>
+  <si>
+    <t>addToCartFromDetailPage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +111,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1EB540"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,12 +160,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ConditionalFormatStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -437,7 +450,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,12 +486,20 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/src/test/resources/com/w2a/excel/testdata.xlsx
+++ b/src/test/resources/com/w2a/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\eclipse-workspace\PageObjectModalBasics\src\test\resources\com\w2a\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A643A-D5BB-4295-80D0-3E524A78B471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF4B97A-C5EA-475F-9160-CDA138A92878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
